--- a/public/excels/Danh_sách_nhân_viên.xlsx
+++ b/public/excels/Danh_sách_nhân_viên.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -41,7 +41,7 @@
     <t>group_id</t>
   </si>
   <si>
-    <t>V.T.Trung</t>
+    <t>Trung</t>
   </si>
   <si>
     <t>trung</t>
@@ -62,13 +62,13 @@
     <t>0989634265</t>
   </si>
   <si>
-    <t>Bạch Hạc, Việt Trì , Phú Thọ, Việt Nam_x001C_</t>
+    <t>Việt Trì Phú Thọ</t>
   </si>
   <si>
     <t>dvhungg123@gmail.com</t>
   </si>
   <si>
-    <t>V.D.Khương</t>
+    <t>Khương</t>
   </si>
   <si>
     <t>Atua</t>
@@ -77,7 +77,7 @@
     <t>Tuấn</t>
   </si>
   <si>
-    <t>N.B.A</t>
+    <t>An</t>
   </si>
   <si>
     <t>an_dxuan</t>
@@ -125,16 +125,10 @@
     <t>trường</t>
   </si>
   <si>
-    <t>M.C.Duy</t>
-  </si>
-  <si>
-    <t>duy</t>
-  </si>
-  <si>
-    <t>N.Đ.Manh</t>
-  </si>
-  <si>
-    <t>duc</t>
+    <t>T.H.Giang</t>
+  </si>
+  <si>
+    <t>giang</t>
   </si>
 </sst>
 </file>
@@ -473,7 +467,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +755,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -776,26 +770,6 @@
         <v>2</v>
       </c>
       <c r="H14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
         <v>2</v>
       </c>
     </row>
